--- a/reports/corpus_1500-unigram_bigram_trigram-fold-1.xlsx
+++ b/reports/corpus_1500-unigram_bigram_trigram-fold-1.xlsx
@@ -557,73 +557,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9778597785977859</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9933333333333333</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8386454183266933</v>
+        <v>0.9800796812749004</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9578313253012049</v>
+        <v>0.9698795180722891</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.843501326259947</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8961038961038961</v>
+        <v>0.9675324675324676</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4224924012158054</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L2" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9610757254069356</v>
+        <v>0.9447983014861996</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2408585055643879</v>
+        <v>0.5850556438791733</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5677966101694916</v>
+        <v>0.8220338983050848</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.32</v>
+        <v>0.7</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3711048158640227</v>
+        <v>0.71671388101983</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="V2" t="n">
-        <v>0.647031467989459</v>
+        <v>0.8209579910091459</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5451867224637408</v>
+        <v>0.7839537645733369</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8460116103964646</v>
+        <v>0.8633970841070057</v>
       </c>
     </row>
     <row r="3">
@@ -639,28 +639,28 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9700460829493087</v>
+        <v>0.9879518072289156</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8784530386740331</v>
+        <v>0.9044943820224719</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9814814814814815</v>
+        <v>0.9586776859504132</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9821428571428571</v>
+        <v>0.9913793103448276</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0.989247311827957</v>
+        <v>0.9867549668874173</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8475609756097561</v>
+        <v>0.875</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -669,37 +669,37 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3877784123358081</v>
+        <v>0.5809399477806788</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9571428571428572</v>
+        <v>0.9238095238095239</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.84</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8851351351351351</v>
+        <v>0.9144578313253012</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V3" t="n">
-        <v>0.647031467989459</v>
+        <v>0.8209579910091459</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7868065504721026</v>
+        <v>0.8683247879189928</v>
       </c>
       <c r="X3" t="n">
-        <v>0.647031467989459</v>
+        <v>0.8209579910091459</v>
       </c>
     </row>
     <row r="4">
@@ -709,73 +709,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9888059701492538</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9966555183946488</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8995726495726495</v>
+        <v>0.984</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9164265129682997</v>
+        <v>0.936046511627907</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9072753209700428</v>
+        <v>0.9405405405405406</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9482758620689654</v>
+        <v>0.9745762711864409</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9403747870528109</v>
+        <v>0.9770491803278688</v>
       </c>
       <c r="K4" t="n">
-        <v>0.563894523326572</v>
+        <v>0.7920133111480866</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8750000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5525940996948119</v>
+        <v>0.719482619240097</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3882126841768098</v>
+        <v>0.7382146439317955</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7127659574468086</v>
+        <v>0.8699551569506727</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4660194174757282</v>
+        <v>0.7636363636363636</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.5263157894736843</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5229540918163673</v>
+        <v>0.8035997882477501</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="V4" t="n">
-        <v>0.647031467989459</v>
+        <v>0.8209579910091459</v>
       </c>
       <c r="W4" t="n">
-        <v>0.593762798327117</v>
+        <v>0.8103894741835257</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6576564270050744</v>
+        <v>0.8182642957918744</v>
       </c>
     </row>
     <row r="5">
@@ -785,67 +785,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C5" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D5" t="n">
-        <v>434</v>
+        <v>498</v>
       </c>
       <c r="E5" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="H5" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="K5" t="n">
-        <v>164</v>
+        <v>272</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N5" t="n">
-        <v>3502</v>
+        <v>2298</v>
       </c>
       <c r="O5" t="n">
-        <v>303</v>
+        <v>736</v>
       </c>
       <c r="P5" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="Q5" t="n">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="R5" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>444</v>
+        <v>830</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>0.647031467989459</v>
+        <v>0.8209579910091459</v>
       </c>
       <c r="W5" t="n">
         <v>6451</v>
